--- a/spec/new/Input_tablak_felmeres.xlsx
+++ b/spec/new/Input_tablak_felmeres.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="202" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="202"/>
   </bookViews>
   <sheets>
-    <sheet name="Tables_Read" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Input_by_Package" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tables_Read" sheetId="1" r:id="rId1"/>
+    <sheet name="Input_by_Package" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -461,45 +460,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color rgb="00808080"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,7 +492,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -519,70 +500,333 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.1254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.1490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
+    <col min="1" max="1" width="48.140625"/>
+    <col min="2" max="2" width="40.140625"/>
+    <col min="3" max="3" width="31.85546875"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,552 +837,551 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>99</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>100</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1146,24 +1389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.6117647058823"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.9058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
+    <col min="1" max="1" width="38.5703125"/>
+    <col min="2" max="2" width="48.140625"/>
+    <col min="3" max="3" width="95.85546875"/>
+    <col min="4" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row r="1" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -1174,859 +1413,858 @@
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.85" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="91" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.25" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="46.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>126</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>126</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>127</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>127</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>127</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>127</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>127</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>128</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>129</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>129</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>63</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>129</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>129</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>130</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>130</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>131</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>131</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>131</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>132</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>132</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>133</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>133</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" t="s">
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>134</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" t="s">
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>135</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" t="s">
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>137</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" t="s">
         <v>78</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:2" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2034,24 +2272,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
